--- a/biology/Zoologie/Acrochordus/Acrochordus.xlsx
+++ b/biology/Zoologie/Acrochordus/Acrochordus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acrochordus est un genre de serpents, le seul de la famille des Acrochordidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acrochordus est un genre de serpents, le seul de la famille des Acrochordidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 3 espèces de ce genre se rencontrent dans l'est de l'Asie du Sud, en Asie du Sud-Est, au Hainan et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 3 espèces de ce genre se rencontrent dans l'est de l'Asie du Sud, en Asie du Sud-Est, au Hainan et en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (26 juil. 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (26 juil. 2011) :
 Acrochordus arafurae McDowell, 1979
 Acrochordus granulatus (Schneider, 1799)
 Acrochordus javanicus Hornstedt, 1787</t>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bonaparte, 1831 : Saggio di una distribuzione metodica degli animali vertebrati. Antonio Boulzaler, Rome (texte intégral).
 Hornstedt, 1787 : Beschryving van een nieuwe slang van Java. Kungliga Svenska vetenskapsakademiens handlingar, vol. 4, p. 307.</t>
